--- a/data/trans_orig/PCS12_SP-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Puntuación del componente de salud física (SF12)</t>
+          <t>Puntuación media del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>52,42</t>
+          <t>52,51</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>52,08</t>
+          <t>51,92</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,53</t>
+          <t>52,3</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>48,29</t>
+          <t>50,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>49,3</t>
+          <t>50,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,33</t>
+          <t>49,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>49,57</t>
+          <t>49,38</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,16</t>
+          <t>48,93</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50,88</t>
+          <t>51,48</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>50,24</t>
+          <t>50,63</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>50,05</t>
+          <t>50,84</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>48,22</t>
+          <t>49,64</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,79; 53,61</t>
+          <t>51,98; 53,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,57; 53,41</t>
+          <t>51,26; 52,6</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>48,58; 52,24</t>
+          <t>51,64; 52,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>45,65; 50,07</t>
+          <t>49,65; 51,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>47,23; 51,0</t>
+          <t>49,73; 51,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,28; 50,27</t>
+          <t>48,44; 50,14</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,03; 51,38</t>
+          <t>48,56; 50,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>46,75; 49,65</t>
+          <t>48,3; 49,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,59; 51,95</t>
+          <t>51,06; 51,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>48,73; 51,42</t>
+          <t>50,08; 51,14</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48,52; 51,26</t>
+          <t>50,28; 51,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>46,83; 49,4</t>
+          <t>49,08; 50,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>52,53</t>
+          <t>52,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,89</t>
+          <t>52,1</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>52,67</t>
+          <t>52,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,65</t>
+          <t>51,45</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>50,66</t>
+          <t>50,45</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,51</t>
+          <t>49,58</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,34</t>
+          <t>50,4</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>49,09</t>
+          <t>49,55</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>51,6</t>
+          <t>51,67</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>50,7</t>
+          <t>50,83</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>51,0</t>
+          <t>51,52</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>49,85</t>
+          <t>50,61</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>51,87; 53,07</t>
+          <t>52,4; 53,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,04; 52,64</t>
+          <t>51,49; 52,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>51,9; 53,28</t>
+          <t>52,04; 53,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>49,86; 51,35</t>
+          <t>50,06; 52,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,92; 51,35</t>
+          <t>49,83; 51,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,54; 50,4</t>
+          <t>48,85; 50,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>48,4; 50,2</t>
+          <t>49,74; 51,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,41; 49,81</t>
+          <t>48,95; 50,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,09; 52,04</t>
+          <t>51,24; 52,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,06; 51,26</t>
+          <t>50,4; 51,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,34; 51,51</t>
+          <t>51,06; 51,89</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,28; 50,31</t>
+          <t>49,98; 51,07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>52,9</t>
+          <t>52,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>52,1</t>
+          <t>52,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>52,66</t>
+          <t>52,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>51,91</t>
+          <t>51,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>50,45</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,58</t>
+          <t>50,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>50,4</t>
+          <t>50,83</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>49,59</t>
+          <t>51,14</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>51,67</t>
+          <t>51,35</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>50,83</t>
+          <t>51,52</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>51,52</t>
+          <t>51,89</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>50,74</t>
+          <t>51,37</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,4; 53,38</t>
+          <t>52,16; 53,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>51,49; 52,68</t>
+          <t>52,16; 53,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,04; 53,15</t>
+          <t>52,33; 53,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,18; 52,45</t>
+          <t>50,94; 52,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,83; 51,07</t>
+          <t>49,21; 50,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,85; 50,26</t>
+          <t>49,37; 50,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>49,74; 51,03</t>
+          <t>50,02; 51,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,99; 50,09</t>
+          <t>50,22; 52,22</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>51,24; 52,02</t>
+          <t>50,86; 51,83</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>50,4; 51,25</t>
+          <t>51,01; 51,96</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,06; 51,89</t>
+          <t>51,43; 52,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>50,38; 51,11</t>
+          <t>50,81; 52,06</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>52,71</t>
+          <t>53,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,91</t>
+          <t>52,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>52,99</t>
+          <t>52,81</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,55</t>
+          <t>51,21</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>50,45</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,16</t>
+          <t>49,86</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,83</t>
+          <t>50,68</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,72</t>
+          <t>49,4</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51,35</t>
+          <t>51,67</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>51,52</t>
+          <t>50,97</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>51,89</t>
+          <t>51,69</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,1</t>
+          <t>50,23</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,23</t>
+          <t>52,54; 53,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,44</t>
+          <t>51,55; 52,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,33; 53,47</t>
+          <t>52,25; 53,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,81; 52,26</t>
+          <t>50,62; 51,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,21; 50,81</t>
+          <t>49,85; 51,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,37; 50,87</t>
+          <t>49,21; 50,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,02; 51,49</t>
+          <t>49,98; 51,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,0; 51,6</t>
+          <t>48,68; 50,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>50,86; 51,83</t>
+          <t>51,25; 52,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>51,01; 51,96</t>
+          <t>50,56; 51,41</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,43; 52,35</t>
+          <t>51,23; 52,1</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>50,6; 51,66</t>
+          <t>49,79; 50,85</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>53,01</t>
+          <t>52,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>52,2</t>
+          <t>52,27</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>52,81</t>
+          <t>52,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>51,16</t>
+          <t>51,24</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>50,45</t>
+          <t>50,36</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>49,86</t>
+          <t>49,74</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>50,68</t>
+          <t>50,38</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>49,01</t>
+          <t>49,8</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>51,67</t>
+          <t>51,56</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>50,97</t>
+          <t>50,98</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>51,69</t>
+          <t>51,52</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>49,99</t>
+          <t>50,5</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,54; 53,46</t>
+          <t>52,55; 53,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,55; 52,74</t>
+          <t>51,94; 52,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,25; 53,3</t>
+          <t>52,4; 52,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,58; 51,65</t>
+          <t>50,64; 51,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>49,85; 51,03</t>
+          <t>50,01; 50,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,21; 50,49</t>
+          <t>49,41; 50,1</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,98; 51,31</t>
+          <t>49,97; 50,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>48,34; 49,61</t>
+          <t>49,35; 50,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,25; 52,02</t>
+          <t>51,34; 51,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,56; 51,41</t>
+          <t>50,73; 51,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>51,23; 52,1</t>
+          <t>51,29; 51,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,6; 50,39</t>
+          <t>50,23; 50,81</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>52,81</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>52,27</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>52,7</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>51,31</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>50,36</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>49,74</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>50,38</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>49,55</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>51,56</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>50,98</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>51,52</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>50,38</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>52,55; 53,05</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>51,94; 52,58</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>52,4; 52,97</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>51,0; 51,59</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>50,01; 50,66</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>49,41; 50,1</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>49,97; 50,76</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>49,21; 49,97</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>51,34; 51,77</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>50,73; 51,2</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>51,29; 51,78</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>50,17; 50,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/PCS12_SP-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP-Habitat-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>51,98; 53,07</t>
+          <t>51,93; 53,02</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>51,26; 52,6</t>
+          <t>51,28; 52,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>51,64; 52,92</t>
+          <t>51,53; 52,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>49,65; 51,11</t>
+          <t>49,64; 51,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>49,73; 51,09</t>
+          <t>49,77; 51,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>48,44; 50,14</t>
+          <t>48,52; 50,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>48,56; 50,32</t>
+          <t>48,58; 50,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,3; 49,58</t>
+          <t>48,29; 49,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,06; 51,91</t>
+          <t>51,02; 51,91</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>50,08; 51,14</t>
+          <t>50,02; 51,16</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>50,28; 51,35</t>
+          <t>50,26; 51,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,08; 50,1</t>
+          <t>49,15; 50,1</t>
         </is>
       </c>
     </row>
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>52,4; 53,38</t>
+          <t>52,34; 53,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,49; 52,68</t>
+          <t>51,44; 52,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>52,04; 53,15</t>
+          <t>52,12; 53,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,42 +884,42 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>49,83; 51,07</t>
+          <t>49,84; 50,99</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>48,85; 50,26</t>
+          <t>48,95; 50,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>49,74; 51,03</t>
+          <t>49,7; 51,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,95; 50,04</t>
+          <t>49,03; 50,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>51,24; 52,02</t>
+          <t>51,24; 52,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>50,4; 51,25</t>
+          <t>50,38; 51,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>51,06; 51,89</t>
+          <t>51,09; 51,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>49,98; 51,07</t>
+          <t>49,86; 51,02</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,23</t>
+          <t>52,09; 53,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>52,16; 53,44</t>
+          <t>52,22; 53,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>52,33; 53,47</t>
+          <t>52,36; 53,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,94; 52,39</t>
+          <t>50,85; 52,36</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>49,21; 50,81</t>
+          <t>49,26; 50,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,37; 50,87</t>
+          <t>49,35; 50,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>50,02; 51,49</t>
+          <t>50,01; 51,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>50,22; 52,22</t>
+          <t>50,18; 52,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>50,86; 51,83</t>
+          <t>50,89; 51,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>51,01; 51,96</t>
+          <t>51,02; 52,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,43; 52,35</t>
+          <t>51,37; 52,33</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>50,81; 52,06</t>
+          <t>50,81; 52,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>52,54; 53,46</t>
+          <t>52,54; 53,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,55; 52,74</t>
+          <t>51,59; 52,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>52,25; 53,3</t>
+          <t>52,27; 53,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>50,62; 51,71</t>
+          <t>50,69; 51,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,85; 51,03</t>
+          <t>49,8; 51,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>49,21; 50,49</t>
+          <t>49,18; 50,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,98; 51,31</t>
+          <t>50,02; 51,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,68; 50,57</t>
+          <t>48,74; 50,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>51,25; 52,02</t>
+          <t>51,27; 52,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>50,56; 51,41</t>
+          <t>50,55; 51,38</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>51,23; 52,1</t>
+          <t>51,22; 52,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,79; 50,85</t>
+          <t>49,75; 50,82</t>
         </is>
       </c>
     </row>
@@ -1284,52 +1284,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52,55; 53,05</t>
+          <t>52,55; 53,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>51,94; 52,58</t>
+          <t>51,95; 52,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>52,4; 52,97</t>
+          <t>52,42; 52,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>50,64; 51,57</t>
+          <t>50,7; 51,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,01; 50,66</t>
+          <t>50,02; 50,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>49,41; 50,1</t>
+          <t>49,42; 50,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>49,97; 50,76</t>
+          <t>50,01; 50,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>49,35; 50,5</t>
+          <t>49,33; 50,37</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,34; 51,77</t>
+          <t>51,33; 51,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>50,73; 51,2</t>
+          <t>50,74; 51,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>50,23; 50,81</t>
+          <t>50,23; 50,84</t>
         </is>
       </c>
     </row>
